--- a/SWFWMD/Bonnet Lake.xlsx
+++ b/SWFWMD/Bonnet Lake.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Hydro Eval\Projects\P289 - CFWI\EMT\2018 Class 1 Wetland Assessments\Water Level Data for RWSP Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.sfwmd.gov\dfsroot\data\wsd\SUP\proj\CFWI_WetlandStress\Update2018\SWFWMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{140C582C-C8B6-40ED-8A35-57134DA50CD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1531783E-8BE1-49B5-B81E-A5F552050B7F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bonnet Lake" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="16">
   <si>
     <t>Site ID</t>
   </si>
@@ -31,16 +31,13 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Recorded Date</t>
+    <t>Collected Date</t>
   </si>
   <si>
-    <t>Aggregated Value</t>
+    <t>Recorded Value</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>No of Records</t>
   </si>
   <si>
     <t>Data Source</t>
@@ -52,7 +49,7 @@
     <t>Quality Description</t>
   </si>
   <si>
-    <t>LAKE BONNET (HAINES CITY)</t>
+    <t>Bonnet Lake</t>
   </si>
   <si>
     <t>Water elevation, NAVD88</t>
@@ -70,19 +67,13 @@
     <t>Good Continuous Records</t>
   </si>
   <si>
-    <t>Override</t>
-  </si>
-  <si>
-    <t>Above Staff Gauge</t>
-  </si>
-  <si>
-    <t>Surveyed</t>
+    <t>No of Records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,18 +908,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -951,5259 +944,7091 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>38012</v>
+        <v>37628</v>
       </c>
       <c r="E2">
-        <v>129.24</v>
+        <v>88.98</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>38036</v>
+        <v>37657</v>
       </c>
       <c r="E3">
-        <v>129.25</v>
+        <v>88.74</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>38062</v>
+        <v>37686</v>
       </c>
       <c r="E4">
-        <v>129.41</v>
+        <v>88.65</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>38134</v>
+        <v>37722</v>
       </c>
       <c r="E5">
-        <v>128.55000000000001</v>
+        <v>88.58</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>38160</v>
+        <v>37757</v>
       </c>
       <c r="E6">
-        <v>128.66</v>
+        <v>88.34</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>38182</v>
+        <v>37785</v>
       </c>
       <c r="E7">
-        <v>128.72999999999999</v>
+        <v>88.6</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>38211</v>
+        <v>37813</v>
       </c>
       <c r="E8">
-        <v>128.87</v>
+        <v>88.87</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>38244</v>
+        <v>37845</v>
+      </c>
+      <c r="E9">
+        <v>89.23</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>38271</v>
+        <v>37848</v>
+      </c>
+      <c r="E10">
+        <v>89.24</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>38285</v>
+        <v>37867</v>
       </c>
       <c r="E11">
-        <v>130.58000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>38295</v>
+        <v>37876</v>
       </c>
       <c r="E12">
-        <v>130.43</v>
+        <v>89.2</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>38327</v>
+        <v>37876</v>
       </c>
       <c r="E13">
-        <v>130.09</v>
+        <v>89.2</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>38358</v>
+        <v>37880</v>
       </c>
       <c r="E14">
-        <v>130.01</v>
+        <v>89.15</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>38390</v>
+        <v>37887</v>
       </c>
       <c r="E15">
-        <v>130.03</v>
+        <v>89.11</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>38415</v>
+        <v>37896</v>
       </c>
       <c r="E16">
-        <v>129.88999999999999</v>
+        <v>89.29</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>38447</v>
+        <v>37902</v>
       </c>
       <c r="E17">
-        <v>129.91999999999999</v>
+        <v>89.19</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>38477</v>
+        <v>37910</v>
       </c>
       <c r="E18">
-        <v>129.77000000000001</v>
+        <v>89.11</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>38509</v>
+        <v>37916</v>
       </c>
       <c r="E19">
-        <v>129.66</v>
+        <v>89.05</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>38540</v>
+        <v>37923</v>
       </c>
       <c r="E20">
-        <v>130</v>
+        <v>89.04</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>38568</v>
+        <v>37929</v>
       </c>
       <c r="E21">
-        <v>130.01</v>
+        <v>88.97</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>38602</v>
+        <v>37942</v>
       </c>
       <c r="E22">
-        <v>130.11000000000001</v>
+        <v>88.93</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>38631</v>
+        <v>37944</v>
       </c>
       <c r="E23">
-        <v>130.27000000000001</v>
+        <v>88.95</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>38663</v>
+        <v>37947</v>
       </c>
       <c r="E24">
-        <v>130.47999999999999</v>
+        <v>88.95</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>38694</v>
+        <v>37958</v>
       </c>
       <c r="E25">
-        <v>130.30000000000001</v>
+        <v>88.87</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>38734</v>
+        <v>37959</v>
       </c>
       <c r="E26">
-        <v>130.03</v>
+        <v>88.87</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>38761</v>
+        <v>37965</v>
       </c>
       <c r="E27">
-        <v>130.02000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>38791</v>
+        <v>37972</v>
       </c>
       <c r="E28">
-        <v>129.75</v>
+        <v>89.25</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>38820</v>
+        <v>37999</v>
       </c>
       <c r="E29">
-        <v>129.4</v>
+        <v>88.91</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>38852</v>
+        <v>38022</v>
       </c>
       <c r="E30">
-        <v>129.02000000000001</v>
+        <v>88.99</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
-        <v>38881</v>
+        <v>38027</v>
       </c>
       <c r="E31">
-        <v>128.86000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>38917</v>
+        <v>38036</v>
       </c>
       <c r="E32">
-        <v>129.13</v>
+        <v>88.93</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>38945</v>
+        <v>38041</v>
       </c>
       <c r="E33">
-        <v>129.02000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>38981</v>
+        <v>38047</v>
       </c>
       <c r="E34">
-        <v>129.44</v>
+        <v>88.99</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>39007</v>
+        <v>38061</v>
       </c>
       <c r="E35">
-        <v>129.02000000000001</v>
+        <v>88.83</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>39034</v>
+        <v>38085</v>
       </c>
       <c r="E36">
-        <v>128.83000000000001</v>
+        <v>88.51</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>39077</v>
+        <v>38134</v>
       </c>
       <c r="E37">
-        <v>128.97999999999999</v>
+        <v>88.13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>39093</v>
+        <v>38134</v>
       </c>
       <c r="E38">
-        <v>128.85</v>
+        <v>88.13</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>39128</v>
+        <v>38155</v>
       </c>
       <c r="E39">
-        <v>128.88</v>
+        <v>88.3</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>39161</v>
+        <v>38162</v>
       </c>
       <c r="E40">
-        <v>128.53</v>
+        <v>88.27</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>39189</v>
+        <v>38176</v>
       </c>
       <c r="E41">
-        <v>128.32</v>
+        <v>88.29</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
-        <v>39217</v>
+        <v>38176</v>
       </c>
       <c r="E42">
-        <v>127.93</v>
+        <v>88.29</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>39247</v>
+        <v>38187</v>
       </c>
       <c r="E43">
-        <v>127.73</v>
+        <v>88.37</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>39274</v>
+        <v>38189</v>
       </c>
       <c r="E44">
-        <v>127.67</v>
+        <v>88.39</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>39308</v>
+        <v>38189</v>
       </c>
       <c r="E45">
-        <v>128.6</v>
+        <v>88.39</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>39352</v>
+        <v>38204</v>
       </c>
       <c r="E46">
-        <v>129.06</v>
+        <v>88.66</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>39400</v>
+        <v>38204</v>
       </c>
       <c r="E47">
-        <v>128.85</v>
+        <v>88.66</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>39442</v>
+        <v>38215</v>
       </c>
       <c r="E48">
-        <v>128.53</v>
+        <v>88.96</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>39478</v>
+        <v>38217</v>
       </c>
       <c r="E49">
-        <v>128.52000000000001</v>
+        <v>88.93</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>39533</v>
+        <v>38232</v>
       </c>
       <c r="E50">
-        <v>128.55000000000001</v>
+        <v>89.01</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>39552</v>
+        <v>38246</v>
       </c>
       <c r="E51">
-        <v>128.99</v>
+        <v>89.45</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
-        <v>39583</v>
+        <v>38246</v>
       </c>
       <c r="E52">
-        <v>128.33000000000001</v>
+        <v>89.45</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>39619</v>
+        <v>38250</v>
       </c>
       <c r="E53">
-        <v>127.72</v>
+        <v>89.36</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>39652</v>
+        <v>38259</v>
       </c>
       <c r="E54">
-        <v>128.37</v>
+        <v>89.79</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>39687</v>
+        <v>38259</v>
       </c>
       <c r="E55">
-        <v>128.97999999999999</v>
+        <v>89.79</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1">
-        <v>39706</v>
+        <v>38278</v>
       </c>
       <c r="E56">
-        <v>128.97</v>
+        <v>89.44</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
-        <v>39742</v>
+        <v>38287</v>
       </c>
       <c r="E57">
-        <v>128.94999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>39772</v>
+        <v>38287</v>
       </c>
       <c r="E58">
-        <v>128.83000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
-        <v>39799</v>
+        <v>38301</v>
       </c>
       <c r="E59">
-        <v>128.80000000000001</v>
+        <v>89.17</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
-        <v>39835</v>
+        <v>38306</v>
       </c>
       <c r="E60">
-        <v>128.49</v>
+        <v>89.1</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
-        <v>39862</v>
+        <v>38323</v>
       </c>
       <c r="E61">
-        <v>128.44999999999999</v>
+        <v>88.95</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
-        <v>39902</v>
+        <v>38330</v>
       </c>
       <c r="E62">
-        <v>127.91</v>
+        <v>88.87</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
-        <v>39925</v>
+        <v>38336</v>
       </c>
       <c r="E63">
-        <v>127.6</v>
+        <v>88.85</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>39947</v>
+        <v>38364</v>
       </c>
       <c r="E64">
-        <v>127.19</v>
+        <v>88.91</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
-        <v>39981</v>
+        <v>38365</v>
       </c>
       <c r="E65">
-        <v>128.61000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
-        <v>40017</v>
+        <v>38379</v>
       </c>
       <c r="E66">
-        <v>128.63</v>
+        <v>88.89</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
-        <v>40052</v>
+        <v>38392</v>
       </c>
       <c r="E67">
-        <v>129.08000000000001</v>
+        <v>88.79</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
-        <v>40071</v>
+        <v>38393</v>
       </c>
       <c r="E68">
-        <v>128.99</v>
+        <v>88.77</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
-        <v>40135</v>
+        <v>38407</v>
       </c>
       <c r="E69">
-        <v>128.93</v>
+        <v>88.59</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>40157</v>
+        <v>38420</v>
       </c>
       <c r="E70">
-        <v>128.49</v>
+        <v>88.81</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>40206</v>
+        <v>38421</v>
       </c>
       <c r="E71">
-        <v>128.31</v>
+        <v>88.89</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>40224</v>
+        <v>38435</v>
       </c>
       <c r="E72">
-        <v>128.46</v>
+        <v>89.05</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
-        <v>40262</v>
+        <v>38449</v>
       </c>
       <c r="E73">
-        <v>128.96</v>
+        <v>88.89</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
-        <v>40282</v>
+        <v>38454</v>
       </c>
       <c r="E74">
-        <v>129.03</v>
+        <v>88.73</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>40324</v>
+        <v>38463</v>
       </c>
       <c r="E75">
-        <v>128.91</v>
+        <v>88.55</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1">
-        <v>40345</v>
+        <v>38477</v>
       </c>
       <c r="E76">
-        <v>129.04</v>
+        <v>88.79</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
-        <v>40388</v>
+        <v>38483</v>
       </c>
       <c r="E77">
-        <v>128.94</v>
+        <v>88.62</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
-        <v>40420</v>
+        <v>38491</v>
       </c>
       <c r="E78">
-        <v>129.07</v>
+        <v>88.43</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
-        <v>40443</v>
+        <v>38505</v>
       </c>
       <c r="E79">
-        <v>129.15</v>
+        <v>88.85</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1">
-        <v>40472</v>
+        <v>38517</v>
       </c>
       <c r="E80">
-        <v>129.02000000000001</v>
+        <v>89.06</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
-        <v>40500</v>
+        <v>38519</v>
       </c>
       <c r="E81">
-        <v>128.99</v>
+        <v>89.03</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
-        <v>40540</v>
+        <v>38533</v>
       </c>
       <c r="E82">
-        <v>128.47999999999999</v>
+        <v>89.39</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>40555</v>
+        <v>38546</v>
       </c>
       <c r="E83">
-        <v>128.47</v>
+        <v>89.21</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
-        <v>40602</v>
+        <v>38547</v>
       </c>
       <c r="E84">
-        <v>128.58000000000001</v>
+        <v>89.25</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>40626</v>
+        <v>38561</v>
       </c>
       <c r="E85">
-        <v>128.47</v>
+        <v>89.29</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
-        <v>40661</v>
+        <v>38574</v>
       </c>
       <c r="E86">
-        <v>128.44999999999999</v>
+        <v>89.35</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
-        <v>40689</v>
+        <v>38590</v>
       </c>
       <c r="E87">
-        <v>128.32</v>
+        <v>89.37</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
-        <v>40716</v>
+        <v>38604</v>
       </c>
       <c r="E88">
-        <v>127.65</v>
+        <v>89.45</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>40737</v>
+        <v>38608</v>
       </c>
       <c r="E89">
-        <v>127.95</v>
+        <v>89.32</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
-        <v>40765</v>
+        <v>38618</v>
       </c>
       <c r="E90">
-        <v>127.6</v>
+        <v>89.17</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>40799</v>
+        <v>38632</v>
       </c>
       <c r="E91">
-        <v>127.89</v>
+        <v>89.05</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>40836</v>
+        <v>38635</v>
       </c>
       <c r="E92">
-        <v>128.34</v>
+        <v>89.03</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
-        <v>40862</v>
+        <v>38660</v>
       </c>
       <c r="E93">
-        <v>128.18</v>
+        <v>89.31</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>40905</v>
+        <v>38670</v>
       </c>
       <c r="E94">
-        <v>127.87</v>
+        <v>89.19</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1">
-        <v>40939</v>
+        <v>38673</v>
       </c>
       <c r="E95">
-        <v>127.61</v>
+        <v>89.19</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1">
-        <v>40968</v>
+        <v>38688</v>
       </c>
       <c r="E96">
-        <v>127.44</v>
+        <v>89.27</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1">
-        <v>40988</v>
+        <v>38701</v>
       </c>
       <c r="E97">
-        <v>127.39</v>
+        <v>89.15</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1">
-        <v>41010</v>
+        <v>38705</v>
       </c>
       <c r="E98">
-        <v>126.82</v>
+        <v>89.11</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>41044</v>
+        <v>38722</v>
       </c>
       <c r="E99">
-        <v>126.25</v>
+        <v>88.95</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1">
-        <v>41072</v>
+        <v>38726</v>
       </c>
       <c r="E100">
-        <v>126.31</v>
+        <v>88.85</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1">
-        <v>41101</v>
+        <v>38736</v>
       </c>
       <c r="E101">
-        <v>127.03</v>
+        <v>88.69</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1">
-        <v>41144</v>
+        <v>38754</v>
       </c>
       <c r="E102">
-        <v>127.26</v>
+        <v>88.79</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1">
-        <v>41178</v>
+        <v>38783</v>
       </c>
       <c r="E103">
-        <v>127.78</v>
+        <v>88.49</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1">
-        <v>41206</v>
+        <v>38812</v>
       </c>
       <c r="E104">
-        <v>127.68</v>
+        <v>88.16</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1">
-        <v>41227</v>
+        <v>38845</v>
       </c>
       <c r="E105">
-        <v>127.43</v>
+        <v>87.94</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
-        <v>41255</v>
+        <v>38874</v>
       </c>
       <c r="E106">
-        <v>127.26</v>
+        <v>88.04</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
-        <v>41291</v>
+        <v>38909</v>
       </c>
       <c r="E107">
-        <v>127.15</v>
+        <v>88.04</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
-        <v>41318</v>
+        <v>38937</v>
       </c>
       <c r="E108">
-        <v>126.86</v>
+        <v>88.07</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1">
-        <v>41345</v>
+        <v>38967</v>
       </c>
       <c r="E109">
-        <v>126.57</v>
+        <v>88.47</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
-        <v>41386</v>
+        <v>38978</v>
       </c>
       <c r="E110">
-        <v>126.39</v>
+        <v>88.29</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
-        <v>41410</v>
+        <v>39006</v>
       </c>
       <c r="E111">
-        <v>126.22</v>
+        <v>88.08</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
-        <v>41444</v>
+        <v>39027</v>
       </c>
       <c r="E112">
-        <v>127.42</v>
+        <v>88.08</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
-        <v>41478</v>
+        <v>39058</v>
       </c>
       <c r="E113">
-        <v>128.35</v>
+        <v>88.03</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>41515</v>
+        <v>39111</v>
       </c>
       <c r="E114">
-        <v>128.84</v>
+        <v>88.03</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1">
-        <v>41547</v>
+        <v>39125</v>
       </c>
       <c r="E115">
-        <v>129.25</v>
+        <v>88.05</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1">
-        <v>41569</v>
+        <v>39160</v>
       </c>
       <c r="E116">
-        <v>129.27000000000001</v>
+        <v>87.93</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1">
-        <v>41592</v>
+        <v>39189</v>
       </c>
       <c r="E117">
-        <v>128.83000000000001</v>
+        <v>87.97</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1">
-        <v>41620</v>
+        <v>39217</v>
       </c>
       <c r="E118">
-        <v>128.71</v>
+        <v>87.95</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1">
-        <v>41668</v>
+        <v>39240</v>
       </c>
       <c r="E119">
-        <v>128.57</v>
+        <v>87.9</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
-        <v>41683</v>
+        <v>39293</v>
       </c>
       <c r="E120">
-        <v>128.66999999999999</v>
+        <v>88.27</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
-        <v>41710</v>
+        <v>39314</v>
       </c>
       <c r="E121">
-        <v>128.58000000000001</v>
+        <v>88.29</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
-        <v>41744</v>
+        <v>39338</v>
       </c>
       <c r="E122">
-        <v>128.69999999999999</v>
+        <v>88.31</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
-        <v>41772</v>
+        <v>39370</v>
       </c>
       <c r="E123">
-        <v>128.61000000000001</v>
+        <v>88.29</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1">
-        <v>41802</v>
+        <v>39392</v>
       </c>
       <c r="E124">
-        <v>128.47999999999999</v>
+        <v>88.28</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1">
-        <v>41837</v>
+        <v>39427</v>
       </c>
       <c r="E125">
-        <v>129.06</v>
+        <v>88.15</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1">
-        <v>41870</v>
+        <v>39461</v>
       </c>
       <c r="E126">
-        <v>129.27000000000001</v>
+        <v>88.09</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1">
-        <v>41898</v>
+        <v>39504</v>
       </c>
       <c r="E127">
-        <v>129.36000000000001</v>
+        <v>88.14</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1">
-        <v>41928</v>
+        <v>39524</v>
       </c>
       <c r="E128">
-        <v>129.79</v>
+        <v>88.18</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1">
-        <v>41955</v>
+        <v>39560</v>
       </c>
       <c r="E129">
-        <v>129.43</v>
+        <v>88.21</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1">
-        <v>41989</v>
+        <v>39587</v>
       </c>
       <c r="E130">
-        <v>129.53</v>
+        <v>87.74</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
-        <v>42025</v>
+        <v>39629</v>
       </c>
       <c r="E131">
-        <v>129.53</v>
+        <v>87.86</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
-        <v>42046</v>
+        <v>39646</v>
       </c>
       <c r="E132">
-        <v>129.66</v>
+        <v>88.44</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
-        <v>42079</v>
+        <v>39674</v>
       </c>
       <c r="E133">
-        <v>129.72999999999999</v>
+        <v>88.31</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
-        <v>42110</v>
+        <v>39701</v>
       </c>
       <c r="E134">
-        <v>129.49</v>
+        <v>88.64</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
-        <v>42142</v>
+        <v>39741</v>
       </c>
       <c r="E135">
-        <v>129.22999999999999</v>
+        <v>88.56</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
-        <v>42184</v>
+        <v>39762</v>
       </c>
       <c r="E136">
-        <v>129.65</v>
+        <v>88.46</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
-        <v>42214</v>
+        <v>39790</v>
       </c>
       <c r="E137">
-        <v>129.53</v>
+        <v>88.38</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1">
-        <v>42234</v>
+        <v>39833</v>
       </c>
       <c r="E138">
-        <v>129.88999999999999</v>
+        <v>88.28</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J138" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
-        <v>42277</v>
+        <v>39849</v>
       </c>
       <c r="E139">
-        <v>130.01</v>
+        <v>88.32</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J139" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1">
-        <v>42306</v>
+        <v>39895</v>
       </c>
       <c r="E140">
-        <v>129.9</v>
+        <v>88.08</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J140" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1">
-        <v>42331</v>
+        <v>39918</v>
       </c>
       <c r="E141">
-        <v>129.81</v>
+        <v>88.1</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
-        <v>42367</v>
+        <v>39961</v>
       </c>
       <c r="E142">
-        <v>129.57</v>
+        <v>88.5</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
-        <v>42390</v>
+        <v>39979</v>
       </c>
       <c r="E143">
-        <v>129.69999999999999</v>
+        <v>88.37</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
-        <v>42408</v>
+        <v>40049</v>
       </c>
       <c r="E144">
-        <v>129.91</v>
+        <v>88.56</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1">
-        <v>42446</v>
+        <v>40085</v>
       </c>
       <c r="E145">
-        <v>129.68</v>
+        <v>88.65</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1">
-        <v>42481</v>
+        <v>40140</v>
       </c>
       <c r="E146">
-        <v>129.86000000000001</v>
+        <v>88.28</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1">
-        <v>42515</v>
+        <v>40162</v>
       </c>
       <c r="E147">
-        <v>129.83000000000001</v>
+        <v>88.55</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="1">
-        <v>42551</v>
+        <v>40203</v>
       </c>
       <c r="E148">
-        <v>130.26</v>
+        <v>88.38</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="1">
-        <v>42570</v>
+        <v>40224</v>
       </c>
       <c r="E149">
-        <v>130</v>
+        <v>88.44</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" s="1">
-        <v>42600</v>
+        <v>40247</v>
       </c>
       <c r="E150">
-        <v>130.03</v>
+        <v>88.28</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1">
-        <v>42641</v>
+        <v>40287</v>
       </c>
       <c r="E151">
-        <v>130.38999999999999</v>
+        <v>88.47</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1">
-        <v>42656</v>
+        <v>40316</v>
       </c>
       <c r="E152">
-        <v>130.57</v>
+        <v>88.29</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1">
-        <v>42695</v>
+        <v>40352</v>
       </c>
       <c r="E153">
-        <v>130.01</v>
+        <v>88.52</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1">
-        <v>42732</v>
+        <v>40378</v>
       </c>
       <c r="E154">
-        <v>130</v>
+        <v>88.71</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1">
-        <v>42766</v>
+        <v>40406</v>
       </c>
       <c r="E155">
-        <v>129.88999999999999</v>
+        <v>88.79</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1">
-        <v>42781</v>
+        <v>40435</v>
       </c>
       <c r="E156">
-        <v>129.66</v>
+        <v>88.95</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" s="1">
-        <v>42810</v>
+        <v>40462</v>
       </c>
       <c r="E157">
-        <v>129.38999999999999</v>
+        <v>88.57</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1">
-        <v>42844</v>
+        <v>40491</v>
       </c>
       <c r="E158">
-        <v>128.9</v>
+        <v>88.48</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" s="1">
-        <v>42872</v>
+        <v>40519</v>
       </c>
       <c r="E159">
-        <v>128.4</v>
+        <v>88.32</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" s="1">
-        <v>42930</v>
+        <v>40562</v>
       </c>
       <c r="E160">
-        <v>129.02000000000001</v>
+        <v>88.34</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" s="1">
-        <v>42956</v>
+        <v>40581</v>
       </c>
       <c r="E161">
-        <v>129.12</v>
+        <v>88.39</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1">
-        <v>42999</v>
+        <v>40632</v>
       </c>
       <c r="E162">
-        <v>130.19999999999999</v>
+        <v>88.43</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D163" s="1">
-        <v>43038</v>
+        <v>40659</v>
       </c>
       <c r="E163">
-        <v>130.19999999999999</v>
+        <v>88.26</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1">
-        <v>43068</v>
+        <v>40687</v>
       </c>
       <c r="E164">
-        <v>129.97999999999999</v>
+        <v>88.27</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>17614</v>
+        <v>23799</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D165" s="1">
-        <v>43096</v>
+        <v>40714</v>
       </c>
       <c r="E165">
-        <v>129.79</v>
+        <v>88.03</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J165" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>23799</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1">
+        <v>40736</v>
+      </c>
+      <c r="E166">
+        <v>88.85</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" t="s">
+        <v>13</v>
+      </c>
+      <c r="J166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>23799</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="1">
+        <v>40770</v>
+      </c>
+      <c r="E167">
+        <v>88.91</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>23799</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="1">
+        <v>40805</v>
+      </c>
+      <c r="E168">
+        <v>88.89</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>23799</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="1">
+        <v>40833</v>
+      </c>
+      <c r="E169">
+        <v>89.29</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>23799</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="1">
+        <v>40861</v>
+      </c>
+      <c r="E170">
+        <v>89.13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>23799</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="1">
+        <v>40890</v>
+      </c>
+      <c r="E171">
+        <v>89.01</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>23799</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="1">
+        <v>40932</v>
+      </c>
+      <c r="E172">
+        <v>88.79</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+      <c r="J172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>23799</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="1">
+        <v>40953</v>
+      </c>
+      <c r="E173">
+        <v>88.73</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+      <c r="J173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>23799</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="1">
+        <v>40981</v>
+      </c>
+      <c r="E174">
+        <v>88.74</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+      <c r="J174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>23799</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="1">
+        <v>41015</v>
+      </c>
+      <c r="E175">
+        <v>88.36</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+      <c r="J175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>23799</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="1">
+        <v>41043</v>
+      </c>
+      <c r="E176">
+        <v>88.25</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" t="s">
+        <v>13</v>
+      </c>
+      <c r="J176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>23799</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="1">
+        <v>41079</v>
+      </c>
+      <c r="E177">
+        <v>88.53</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+      <c r="J177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>23799</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="1">
+        <v>41113</v>
+      </c>
+      <c r="E178">
+        <v>88.97</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>23799</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="1">
+        <v>41141</v>
+      </c>
+      <c r="E179">
+        <v>88.77</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+      <c r="J179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>23799</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="1">
+        <v>41169</v>
+      </c>
+      <c r="E180">
+        <v>89.12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>23799</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="1">
+        <v>41204</v>
+      </c>
+      <c r="E181">
+        <v>89</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>23799</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="1">
+        <v>41232</v>
+      </c>
+      <c r="E182">
+        <v>88.79</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+      <c r="J182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>23799</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="1">
+        <v>41253</v>
+      </c>
+      <c r="E183">
+        <v>88.79</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+      <c r="J183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>23799</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="1">
+        <v>41291</v>
+      </c>
+      <c r="E184">
+        <v>88.67</v>
+      </c>
+      <c r="F184" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+      <c r="J184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>23799</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="1">
+        <v>41319</v>
+      </c>
+      <c r="E185">
+        <v>88.57</v>
+      </c>
+      <c r="F185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" t="s">
+        <v>13</v>
+      </c>
+      <c r="J185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>23799</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E186">
+        <v>88.5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+      <c r="J186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>23799</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="1">
+        <v>41380</v>
+      </c>
+      <c r="E187">
+        <v>88.74</v>
+      </c>
+      <c r="F187" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+      <c r="J187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>23799</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="1">
+        <v>41415</v>
+      </c>
+      <c r="E188">
+        <v>88.6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+      <c r="J188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>23799</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="1">
+        <v>41442</v>
+      </c>
+      <c r="E189">
+        <v>88.92</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" t="s">
+        <v>12</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+      <c r="J189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>23799</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="1">
+        <v>41478</v>
+      </c>
+      <c r="E190">
+        <v>89.35</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" t="s">
+        <v>13</v>
+      </c>
+      <c r="J190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>23799</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="1">
+        <v>41505</v>
+      </c>
+      <c r="E191">
+        <v>89.3</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+      <c r="J191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>23799</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="1">
+        <v>41534</v>
+      </c>
+      <c r="E192">
+        <v>89.25</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" t="s">
+        <v>13</v>
+      </c>
+      <c r="J192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>23799</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="1">
+        <v>41569</v>
+      </c>
+      <c r="E193">
+        <v>88.94</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" t="s">
+        <v>13</v>
+      </c>
+      <c r="J193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>23799</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="1">
+        <v>41590</v>
+      </c>
+      <c r="E194">
+        <v>88.77</v>
+      </c>
+      <c r="F194" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+      <c r="J194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>23799</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="1">
+        <v>41619</v>
+      </c>
+      <c r="E195">
+        <v>88.7</v>
+      </c>
+      <c r="F195" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" t="s">
+        <v>13</v>
+      </c>
+      <c r="J195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>23799</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="1">
+        <v>41660</v>
+      </c>
+      <c r="E196">
+        <v>88.62</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>23799</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="1">
+        <v>41687</v>
+      </c>
+      <c r="E197">
+        <v>88.69</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>23799</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="1">
+        <v>41715</v>
+      </c>
+      <c r="E198">
+        <v>88.57</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" t="s">
+        <v>13</v>
+      </c>
+      <c r="J198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>23799</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="1">
+        <v>41746</v>
+      </c>
+      <c r="E199">
+        <v>88.54</v>
+      </c>
+      <c r="F199" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" t="s">
+        <v>13</v>
+      </c>
+      <c r="J199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>23799</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="1">
+        <v>41761</v>
+      </c>
+      <c r="E200">
+        <v>88.95</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" t="s">
+        <v>13</v>
+      </c>
+      <c r="J200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>23799</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="1">
+        <v>41807</v>
+      </c>
+      <c r="E201">
+        <v>89.01</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201" t="s">
+        <v>13</v>
+      </c>
+      <c r="J201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>23799</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="1">
+        <v>41830</v>
+      </c>
+      <c r="E202">
+        <v>89.18</v>
+      </c>
+      <c r="F202" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" t="s">
+        <v>13</v>
+      </c>
+      <c r="J202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>23799</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="1">
+        <v>41865</v>
+      </c>
+      <c r="E203">
+        <v>89.16</v>
+      </c>
+      <c r="F203" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+      <c r="J203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>23799</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="1">
+        <v>41904</v>
+      </c>
+      <c r="E204">
+        <v>89.56</v>
+      </c>
+      <c r="F204" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+      <c r="J204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>23799</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="1">
+        <v>41932</v>
+      </c>
+      <c r="E205">
+        <v>89.41</v>
+      </c>
+      <c r="F205" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" t="s">
+        <v>13</v>
+      </c>
+      <c r="J205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>23799</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="1">
+        <v>41953</v>
+      </c>
+      <c r="E206">
+        <v>89.23</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+      <c r="J206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>23799</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="1">
+        <v>41981</v>
+      </c>
+      <c r="E207">
+        <v>89.18</v>
+      </c>
+      <c r="F207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>12</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+      <c r="J207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>23799</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="1">
+        <v>42024</v>
+      </c>
+      <c r="E208">
+        <v>89.07</v>
+      </c>
+      <c r="F208" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
+        <v>12</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+      <c r="J208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>23799</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="1">
+        <v>42053</v>
+      </c>
+      <c r="E209">
+        <v>89.14</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>12</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>23799</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="1">
+        <v>42079</v>
+      </c>
+      <c r="E210">
+        <v>89.1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+      <c r="J210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>23799</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="1">
+        <v>42115</v>
+      </c>
+      <c r="E211">
+        <v>89.06</v>
+      </c>
+      <c r="F211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
+        <v>12</v>
+      </c>
+      <c r="I211" t="s">
+        <v>13</v>
+      </c>
+      <c r="J211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>23799</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="1">
+        <v>42135</v>
+      </c>
+      <c r="E212">
+        <v>88.89</v>
+      </c>
+      <c r="F212" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" t="s">
+        <v>12</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+      <c r="J212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>23799</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="1">
+        <v>42166</v>
+      </c>
+      <c r="E213">
+        <v>89.28</v>
+      </c>
+      <c r="F213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+      <c r="J213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>23799</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="1">
+        <v>42205</v>
+      </c>
+      <c r="E214">
+        <v>89.23</v>
+      </c>
+      <c r="F214" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" t="s">
+        <v>12</v>
+      </c>
+      <c r="I214" t="s">
+        <v>13</v>
+      </c>
+      <c r="J214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>23799</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="1">
+        <v>42227</v>
+      </c>
+      <c r="E215">
+        <v>89.19</v>
+      </c>
+      <c r="F215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>12</v>
+      </c>
+      <c r="I215" t="s">
+        <v>13</v>
+      </c>
+      <c r="J215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>23799</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="1">
+        <v>42268</v>
+      </c>
+      <c r="E216">
+        <v>89.62</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" t="s">
+        <v>12</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+      <c r="J216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>23799</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="1">
+        <v>42291</v>
+      </c>
+      <c r="E217">
+        <v>89.47</v>
+      </c>
+      <c r="F217" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" t="s">
+        <v>12</v>
+      </c>
+      <c r="I217" t="s">
+        <v>13</v>
+      </c>
+      <c r="J217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>23799</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="1">
+        <v>42317</v>
+      </c>
+      <c r="E218">
+        <v>89.11</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" t="s">
+        <v>12</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+      <c r="J218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>23799</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="1">
+        <v>42348</v>
+      </c>
+      <c r="E219">
+        <v>89.04</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
+        <v>12</v>
+      </c>
+      <c r="I219" t="s">
+        <v>13</v>
+      </c>
+      <c r="J219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>23799</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="1">
+        <v>42375</v>
+      </c>
+      <c r="E220">
+        <v>88.85</v>
+      </c>
+      <c r="F220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" t="s">
+        <v>12</v>
+      </c>
+      <c r="I220" t="s">
+        <v>13</v>
+      </c>
+      <c r="J220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>23799</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" s="1">
+        <v>42411</v>
+      </c>
+      <c r="E221">
+        <v>89.14</v>
+      </c>
+      <c r="F221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
+        <v>12</v>
+      </c>
+      <c r="I221" t="s">
+        <v>13</v>
+      </c>
+      <c r="J221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>23799</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="1">
+        <v>42436</v>
+      </c>
+      <c r="E222">
+        <v>88.97</v>
+      </c>
+      <c r="F222" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" t="s">
+        <v>12</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+      <c r="J222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>23799</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="1">
+        <v>42466</v>
+      </c>
+      <c r="E223">
+        <v>88.76</v>
+      </c>
+      <c r="F223" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" t="s">
+        <v>12</v>
+      </c>
+      <c r="I223" t="s">
+        <v>13</v>
+      </c>
+      <c r="J223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>23799</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="1">
+        <v>42509</v>
+      </c>
+      <c r="E224">
+        <v>89.05</v>
+      </c>
+      <c r="F224" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" t="s">
+        <v>12</v>
+      </c>
+      <c r="I224" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>23799</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="1">
+        <v>42542</v>
+      </c>
+      <c r="E225">
+        <v>89.31</v>
+      </c>
+      <c r="F225" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+      <c r="J225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>23799</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="1">
+        <v>42569</v>
+      </c>
+      <c r="E226">
+        <v>89.14</v>
+      </c>
+      <c r="F226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" t="s">
+        <v>12</v>
+      </c>
+      <c r="I226" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>23799</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="1">
+        <v>42590</v>
+      </c>
+      <c r="E227">
+        <v>89.06</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+      <c r="J227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>23799</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="1">
+        <v>42628</v>
+      </c>
+      <c r="E228">
+        <v>89.34</v>
+      </c>
+      <c r="F228" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" t="s">
+        <v>12</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+      <c r="J228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>23799</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="1">
+        <v>42649</v>
+      </c>
+      <c r="E229">
+        <v>89.37</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" t="s">
+        <v>12</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>23799</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="1">
+        <v>42681</v>
+      </c>
+      <c r="E230">
+        <v>88.74</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" t="s">
+        <v>12</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>23799</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="1">
+        <v>42710</v>
+      </c>
+      <c r="E231">
+        <v>88.47</v>
+      </c>
+      <c r="F231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" t="s">
+        <v>12</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+      <c r="J231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>23799</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="1">
+        <v>42725</v>
+      </c>
+      <c r="E232">
+        <v>88.58</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" t="s">
+        <v>12</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+      <c r="J232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>23799</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="1">
+        <v>42746</v>
+      </c>
+      <c r="E233">
+        <v>88.43</v>
+      </c>
+      <c r="F233" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" t="s">
+        <v>12</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>23799</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="1">
+        <v>42775</v>
+      </c>
+      <c r="E234">
+        <v>88.36</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>23799</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="1">
+        <v>42803</v>
+      </c>
+      <c r="E235">
+        <v>88.29</v>
+      </c>
+      <c r="F235" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" t="s">
+        <v>12</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>23799</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="1">
+        <v>42829</v>
+      </c>
+      <c r="E236">
+        <v>88.31</v>
+      </c>
+      <c r="F236" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" t="s">
+        <v>12</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+      <c r="J236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>23799</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="1">
+        <v>42857</v>
+      </c>
+      <c r="E237">
+        <v>88.45</v>
+      </c>
+      <c r="F237" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" t="s">
+        <v>12</v>
+      </c>
+      <c r="I237" t="s">
+        <v>13</v>
+      </c>
+      <c r="J237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>23799</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="1">
+        <v>42891</v>
+      </c>
+      <c r="E238">
+        <v>88.73</v>
+      </c>
+      <c r="F238" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" t="s">
+        <v>12</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>23799</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="1">
+        <v>42928</v>
+      </c>
+      <c r="E239">
+        <v>88.96</v>
+      </c>
+      <c r="F239" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" t="s">
+        <v>12</v>
+      </c>
+      <c r="I239" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>23799</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="1">
+        <v>42954</v>
+      </c>
+      <c r="E240">
+        <v>88.89</v>
+      </c>
+      <c r="F240" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" t="s">
+        <v>12</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>23799</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="1">
+        <v>42996</v>
+      </c>
+      <c r="E241">
+        <v>90.38</v>
+      </c>
+      <c r="F241" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" t="s">
+        <v>12</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+      <c r="J241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>23799</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E242">
+        <v>90.09</v>
+      </c>
+      <c r="F242" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" t="s">
+        <v>12</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>23799</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="1">
+        <v>43046</v>
+      </c>
+      <c r="E243">
+        <v>89.39</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" t="s">
+        <v>12</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+      <c r="J243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>23799</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="1">
+        <v>43081</v>
+      </c>
+      <c r="E244">
+        <v>88.97</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>12</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+      <c r="J244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D253" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
